--- a/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Bin.Uni.Protein.RANK.Symptoms.MODEL1.xlsx
+++ b/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Bin.Uni.Protein.RANK.Symptoms.MODEL1.xlsx
@@ -401,7 +401,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -464,34 +464,34 @@
         <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.270307354656709</v>
+        <v>0.270307354656661</v>
       </c>
       <c r="E2" t="n">
-        <v>0.102367392374896</v>
+        <v>0.10236739237489</v>
       </c>
       <c r="F2" t="n">
-        <v>1.31036713628777</v>
+        <v>1.31036713628771</v>
       </c>
       <c r="G2" t="n">
-        <v>1.07215138025336</v>
+        <v>1.07215138025332</v>
       </c>
       <c r="H2" t="n">
-        <v>1.60151081599808</v>
+        <v>1.60151081599798</v>
       </c>
       <c r="I2" t="n">
-        <v>2.64056110432874</v>
+        <v>2.64056110432844</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00827688655951607</v>
+        <v>0.00827688655952362</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0361461034404948</v>
+        <v>0.0361461034404945</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0246295802235453</v>
+        <v>0.024629580223545</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0494188429859511</v>
+        <v>0.0494188429859504</v>
       </c>
       <c r="N2" t="n">
         <v>2423</v>
@@ -514,34 +514,34 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>0.362353578740811</v>
+        <v>0.362353578740784</v>
       </c>
       <c r="E3" t="n">
-        <v>0.123462887097998</v>
+        <v>0.12346288709799</v>
       </c>
       <c r="F3" t="n">
-        <v>1.43670684115969</v>
+        <v>1.43670684115965</v>
       </c>
       <c r="G3" t="n">
-        <v>1.12790995191729</v>
+        <v>1.12790995191727</v>
       </c>
       <c r="H3" t="n">
-        <v>1.83004551376316</v>
+        <v>1.83004551376309</v>
       </c>
       <c r="I3" t="n">
-        <v>2.93491904537431</v>
+        <v>2.93491904537425</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00333634719795978</v>
+        <v>0.00333634719796037</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0262794847646788</v>
+        <v>0.0262794847646799</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0223846744537741</v>
+        <v>0.0223846744537751</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0387640306371692</v>
+        <v>0.038764030637171</v>
       </c>
       <c r="N3" t="n">
         <v>2423</v>
